--- a/data/trans_dic/P19C02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C02-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.3345204920144876</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.4490875517439302</v>
+        <v>0.4490875517439301</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2876763226427852</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2153648914285926</v>
+        <v>0.2154865581749427</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1918449966477532</v>
+        <v>0.1918568239950319</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2837711065306754</v>
+        <v>0.2853743983624534</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.364027318434076</v>
+        <v>0.3663413597993369</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2466773033844327</v>
+        <v>0.2422721826443781</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2198567958168117</v>
+        <v>0.2186374931257883</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.290044861010221</v>
+        <v>0.2932007056473016</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3478266731018284</v>
+        <v>0.3493017777736638</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2414332261273118</v>
+        <v>0.2387231456451736</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2186393440823159</v>
+        <v>0.2196752194215393</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2978915995303501</v>
+        <v>0.2992661246824549</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3815603390907524</v>
+        <v>0.3786878616672337</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.307382233736725</v>
+        <v>0.3039491930324375</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2766577907701384</v>
+        <v>0.2829935462102731</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3929912198173093</v>
+        <v>0.384454448307758</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5314309106209637</v>
+        <v>0.5200991242290983</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3400865816406447</v>
+        <v>0.3354244295238612</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.31124037319189</v>
+        <v>0.3168699641805901</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.389021512843626</v>
+        <v>0.3871938019858588</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4921196010187307</v>
+        <v>0.4880817202991518</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3049622698063861</v>
+        <v>0.3070596928333111</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2812329559988039</v>
+        <v>0.2849776991710939</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3677606535709629</v>
+        <v>0.3695709540382536</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4975954732226534</v>
+        <v>0.4910062189235583</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3478341811805708</v>
+        <v>0.3496586479441366</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3184312234240605</v>
+        <v>0.3232104525904166</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3613235400583861</v>
+        <v>0.3627265070635127</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4986572967395473</v>
+        <v>0.4940926355421932</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.344026857552396</v>
+        <v>0.342113772363821</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3201789241353748</v>
+        <v>0.3207296528483025</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3380023367398634</v>
+        <v>0.3371283612288781</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.490655290697331</v>
+        <v>0.487867867057305</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3578005057010825</v>
+        <v>0.3581503473776377</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3325045368107139</v>
+        <v>0.3322961876147571</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3632104524906338</v>
+        <v>0.3614879004846177</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5137532550994918</v>
+        <v>0.5104343388758729</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4340585558597742</v>
+        <v>0.4336180319512322</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4005977003335231</v>
+        <v>0.4009590022865007</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4493505080206392</v>
+        <v>0.4489515406812042</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6207524443181488</v>
+        <v>0.6161501329850306</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.429370207935566</v>
+        <v>0.4241089132081</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4027779703985921</v>
+        <v>0.4019872055389298</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4231168865591993</v>
+        <v>0.4249284997942085</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5880765479134796</v>
+        <v>0.5840784188589506</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4149239809685609</v>
+        <v>0.4180510161847241</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3897928592641348</v>
+        <v>0.3898452164609915</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4256748950900492</v>
+        <v>0.4233785090321024</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.5878597354889761</v>
+        <v>0.5873202853562096</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3200874792100049</v>
+        <v>0.3203054357396437</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3456701657831197</v>
+        <v>0.3464700316697792</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.38185493182433</v>
+        <v>0.3785995979265623</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5042210183682555</v>
+        <v>0.503547390832922</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3057411892382632</v>
+        <v>0.3011470822128975</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.357028661919652</v>
+        <v>0.3556318112208638</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.404929373694685</v>
+        <v>0.4057361557903014</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5267691757541373</v>
+        <v>0.5285646547809877</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3225651616507444</v>
+        <v>0.3195938307757101</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3613133267123103</v>
+        <v>0.3635727690026142</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4072864114255657</v>
+        <v>0.4054669033932432</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.52557358635623</v>
+        <v>0.5282975884014838</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.406341900762885</v>
+        <v>0.4105726148972579</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4309515043682147</v>
+        <v>0.4294741857400793</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4689153860497439</v>
+        <v>0.4638540294859712</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5948360115448934</v>
+        <v>0.5889178286574296</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3796922284346194</v>
+        <v>0.3777163796725692</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4340489899321567</v>
+        <v>0.4331903674184652</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4845981019776622</v>
+        <v>0.4881702911555167</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5978511887897823</v>
+        <v>0.5950467315653968</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3793289988009217</v>
+        <v>0.3774959965990317</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4185560866336999</v>
+        <v>0.4208342613577773</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.465565107291635</v>
+        <v>0.4624285610107304</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5825180922107924</v>
+        <v>0.5838146405711552</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.3731378514814339</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5001089261993924</v>
+        <v>0.5001089261993925</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.3226859165299915</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2600654557203666</v>
+        <v>0.2633237834073157</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2970415289516925</v>
+        <v>0.296722963308427</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3275727849877715</v>
+        <v>0.3250597058021225</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4593608608924904</v>
+        <v>0.4635966929198209</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2808223579232463</v>
+        <v>0.277911196722255</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3460768827371125</v>
+        <v>0.3436498298941415</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.397489202800312</v>
+        <v>0.3968760309135341</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.513704793973019</v>
+        <v>0.5119444931026039</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2838480423364689</v>
+        <v>0.2872962365193407</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3343877388420241</v>
+        <v>0.3371470560994944</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3782900704046053</v>
+        <v>0.3751639945713521</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4984640340412681</v>
+        <v>0.4967065691657249</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3556487090838679</v>
+        <v>0.3578930222027276</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.381072387255663</v>
+        <v>0.3806312750213762</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.41626646242109</v>
+        <v>0.4132770381688911</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5402428369716128</v>
+        <v>0.5384639151418192</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3676485478837141</v>
+        <v>0.3660664607662396</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4301890309210306</v>
+        <v>0.4330047580858098</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4860538188878353</v>
+        <v>0.4855519378003552</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.574819903353413</v>
+        <v>0.5724632819914102</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3487690324820305</v>
+        <v>0.3491706539180366</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3983037942591146</v>
+        <v>0.3979800925106804</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4379554601775474</v>
+        <v>0.4391574861698728</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5462513128823272</v>
+        <v>0.5463198532433405</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.2814658860748575</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4616687794580332</v>
+        <v>0.461668779458033</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.2504032148424158</v>
@@ -1229,7 +1229,7 @@
         <v>0.3471292284081993</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.5143510389484296</v>
+        <v>0.5143510389484295</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2243444209704203</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1453378484520878</v>
+        <v>0.1507783959878211</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1968400968589209</v>
+        <v>0.1906840899875331</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2280165706207967</v>
+        <v>0.2347053365406319</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4211912693847455</v>
+        <v>0.4201926923693799</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2007874450957356</v>
+        <v>0.2017458416023632</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.243469030521654</v>
+        <v>0.2412746048798781</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2974574787938234</v>
+        <v>0.3015628543052579</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4836765368078793</v>
+        <v>0.482155571893202</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1907992574843853</v>
+        <v>0.1909399131314947</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2291201435890805</v>
+        <v>0.2305931402936025</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2815199929297453</v>
+        <v>0.280354033759907</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4611024382039641</v>
+        <v>0.4633834821502099</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2446243141127826</v>
+        <v>0.2424715351846263</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2887826120773515</v>
+        <v>0.2847745198576818</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3277551927566293</v>
+        <v>0.3369577388662936</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5014184164846377</v>
+        <v>0.5011377598395959</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2986271030721656</v>
+        <v>0.2990943387309525</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3411455810431986</v>
+        <v>0.3407179929856965</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3917653204970803</v>
+        <v>0.3944429926235151</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5444108601852201</v>
+        <v>0.5448682889718198</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2607762131145306</v>
+        <v>0.2620977563471537</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2984015417647128</v>
+        <v>0.2988777992018158</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3515825827183313</v>
+        <v>0.3523519098034817</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5132642740583827</v>
+        <v>0.5122923563299207</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.260814564581786</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.4221002821920626</v>
+        <v>0.4221002821920627</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.06205000560282396</v>
+        <v>0.06233883586362824</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.09218836552934571</v>
+        <v>0.09309738128827758</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1672409419231144</v>
+        <v>0.1683610521941115</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3673768441596057</v>
+        <v>0.3614396891896828</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1322497831471156</v>
+        <v>0.132782993942211</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1417917756697327</v>
+        <v>0.1401652138175211</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2461587140627847</v>
+        <v>0.2368523624571021</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.4030661475211073</v>
+        <v>0.4033533456025292</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1102399846956681</v>
+        <v>0.1123711822122286</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1296404598588333</v>
+        <v>0.1306479642802996</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2250393079112631</v>
+        <v>0.2239424982096057</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3975518270016177</v>
+        <v>0.3946251718350027</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1439747549300694</v>
+        <v>0.145133798933086</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1919044754179977</v>
+        <v>0.1851483078091055</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2741421329438329</v>
+        <v>0.2754264599688554</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4515817393861216</v>
+        <v>0.4435753118146119</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2230250889967524</v>
+        <v>0.227996978568358</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.22793901425058</v>
+        <v>0.2300094577673363</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3609674705915433</v>
+        <v>0.351265133524746</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4768558863535368</v>
+        <v>0.4691497364332732</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1738277892703311</v>
+        <v>0.174737761250087</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1944853908683367</v>
+        <v>0.1923836227210509</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3049369433697868</v>
+        <v>0.3011267140942605</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4515664145985967</v>
+        <v>0.4498100853491985</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02034033415149947</v>
+        <v>0.01840406622219767</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1000277762005303</v>
+        <v>0.09903654426684731</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1379018505789308</v>
+        <v>0.1396414810106685</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2226764718904886</v>
+        <v>0.2235987082719249</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0223442764192048</v>
+        <v>0.02267555225975484</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.08208337536653643</v>
+        <v>0.08535100988776308</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1389143113721098</v>
+        <v>0.1425121937698002</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2634216925882062</v>
+        <v>0.2624876820954</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0295734182221749</v>
+        <v>0.02767209826759546</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1000449329580805</v>
+        <v>0.09853052051877272</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1544354614396768</v>
+        <v>0.1551523104515431</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.255670796399811</v>
+        <v>0.2563790105070391</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1004399649834362</v>
+        <v>0.1004347380901374</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2172686817762499</v>
+        <v>0.2053788991169515</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.254911263289358</v>
+        <v>0.2610199722902641</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3074325976568893</v>
+        <v>0.3059742023707372</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.09453090008309036</v>
+        <v>0.09401599628350683</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1596934871769339</v>
+        <v>0.1604819846174112</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2517785748121503</v>
+        <v>0.2543846038413808</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3327144562236962</v>
+        <v>0.3303844596110544</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.07919104394475564</v>
+        <v>0.08061078005108549</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1641340498485838</v>
+        <v>0.1597334353471611</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2361801337478524</v>
+        <v>0.2367495144341783</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3084877345593345</v>
+        <v>0.3077286287195368</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.3484740703217505</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.4715726327480701</v>
+        <v>0.47157263274807</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.2910457493136153</v>
@@ -1637,7 +1637,7 @@
         <v>0.37187151373609</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.4864402435980973</v>
+        <v>0.4864402435980972</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.2887349793938603</v>
@@ -1649,7 +1649,7 @@
         <v>0.3606020723469251</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.4792474951632352</v>
+        <v>0.4792474951632351</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2677525109718834</v>
+        <v>0.2661250448433759</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2798144152817445</v>
+        <v>0.2783713029326867</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3301625166294197</v>
+        <v>0.3316356184361788</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.4510162393338584</v>
+        <v>0.4521513841531291</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2746177180439938</v>
+        <v>0.2739993273582496</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2953121400022042</v>
+        <v>0.2953803912842574</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.3540638477755765</v>
+        <v>0.3532576810720362</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.4720364379870138</v>
+        <v>0.4704223073461752</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2751616476731209</v>
+        <v>0.2765391479678251</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2933573524743565</v>
+        <v>0.2924374082411958</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.348345396714963</v>
+        <v>0.3469013331659558</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.4680045221935678</v>
+        <v>0.4670705891539168</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3047898823876637</v>
+        <v>0.3045224584705804</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3134524769298308</v>
+        <v>0.3133075343370686</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3686921277813537</v>
+        <v>0.3683103137927002</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.4893591295586825</v>
+        <v>0.4912570417859246</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3077489944745603</v>
+        <v>0.3078592766871914</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3287272208725144</v>
+        <v>0.32791853023361</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3907604812116258</v>
+        <v>0.389401699298678</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.5008690912610059</v>
+        <v>0.5004800340746792</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3011198085807689</v>
+        <v>0.3014732337399176</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.317180932219856</v>
+        <v>0.3163231355211248</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3744766992365898</v>
+        <v>0.37336181333963</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.4920387784287189</v>
+        <v>0.4909618351721852</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>77402</v>
+        <v>77446</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>72743</v>
+        <v>72748</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>100126</v>
+        <v>100692</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>137913</v>
+        <v>138790</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>92813</v>
+        <v>91155</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>81565</v>
+        <v>81113</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>102075</v>
+        <v>103186</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>119388</v>
+        <v>119894</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>177611</v>
+        <v>175617</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>164016</v>
+        <v>164793</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>209945</v>
+        <v>210914</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>275522</v>
+        <v>273448</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>110473</v>
+        <v>109240</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>104902</v>
+        <v>107304</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>138663</v>
+        <v>135651</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>201335</v>
+        <v>197042</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>127958</v>
+        <v>126204</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>115467</v>
+        <v>117556</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>136908</v>
+        <v>136265</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>168915</v>
+        <v>167529</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>224346</v>
+        <v>225889</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>210971</v>
+        <v>213781</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>259187</v>
+        <v>260463</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>359311</v>
+        <v>354553</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>200276</v>
+        <v>201327</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>190188</v>
+        <v>193043</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>178161</v>
+        <v>178852</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>222348</v>
+        <v>220312</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>188089</v>
+        <v>187043</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>179252</v>
+        <v>179561</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>167893</v>
+        <v>167458</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>236795</v>
+        <v>235449</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>401634</v>
+        <v>402027</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>384747</v>
+        <v>384506</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>359505</v>
+        <v>357800</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>477021</v>
+        <v>473939</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>249923</v>
+        <v>249669</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>239264</v>
+        <v>239480</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>221565</v>
+        <v>221368</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>276789</v>
+        <v>274737</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>234748</v>
+        <v>231872</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>225496</v>
+        <v>225053</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>210171</v>
+        <v>211070</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>283811</v>
+        <v>281882</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>465755</v>
+        <v>469266</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>451036</v>
+        <v>451097</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>421332</v>
+        <v>419059</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>545829</v>
+        <v>545328</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>160983</v>
+        <v>161092</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>202788</v>
+        <v>203257</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>213022</v>
+        <v>211206</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>303099</v>
+        <v>302694</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>184535</v>
+        <v>181762</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>235779</v>
+        <v>234856</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>232057</v>
+        <v>232519</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>319897</v>
+        <v>320988</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>356917</v>
+        <v>353630</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>450573</v>
+        <v>453391</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>460616</v>
+        <v>458559</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>635106</v>
+        <v>638397</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>204363</v>
+        <v>206491</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>252818</v>
+        <v>251951</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>261589</v>
+        <v>258766</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>357570</v>
+        <v>354013</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>229169</v>
+        <v>227976</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>286642</v>
+        <v>286075</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>277713</v>
+        <v>279761</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>363064</v>
+        <v>361361</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>419726</v>
+        <v>417698</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>521957</v>
+        <v>524798</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>526526</v>
+        <v>522979</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>703918</v>
+        <v>705485</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>105261</v>
+        <v>106580</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>161246</v>
+        <v>161073</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>167839</v>
+        <v>166551</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>311160</v>
+        <v>314030</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>123048</v>
+        <v>121772</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>194963</v>
+        <v>193595</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>216586</v>
+        <v>216251</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>370770</v>
+        <v>369500</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>239260</v>
+        <v>242167</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>369896</v>
+        <v>372949</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>399949</v>
+        <v>396644</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>697417</v>
+        <v>694959</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>143948</v>
+        <v>144856</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>206861</v>
+        <v>206622</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>213283</v>
+        <v>211752</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>365948</v>
+        <v>364743</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>161092</v>
+        <v>160399</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>242347</v>
+        <v>243934</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>264843</v>
+        <v>264569</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>414880</v>
+        <v>413179</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>293983</v>
+        <v>294322</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>440600</v>
+        <v>440242</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>463031</v>
+        <v>464302</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>764278</v>
+        <v>764374</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>39583</v>
+        <v>41064</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>70715</v>
+        <v>68503</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>84595</v>
+        <v>87076</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>249916</v>
+        <v>249323</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>64068</v>
+        <v>64373</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>95127</v>
+        <v>94270</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>117755</v>
+        <v>119381</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>288198</v>
+        <v>287292</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>112845</v>
+        <v>112928</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>171832</v>
+        <v>172937</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>215891</v>
+        <v>214996</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>548345</v>
+        <v>551057</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>66623</v>
+        <v>66037</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>103745</v>
+        <v>102305</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>121598</v>
+        <v>125012</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>297519</v>
+        <v>297353</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>95287</v>
+        <v>95436</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>133291</v>
+        <v>133124</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>155089</v>
+        <v>156149</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>324387</v>
+        <v>324659</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>154231</v>
+        <v>155013</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>223791</v>
+        <v>224148</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>269620</v>
+        <v>270210</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>610376</v>
+        <v>609220</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>13202</v>
+        <v>13264</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>24107</v>
+        <v>24345</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>38486</v>
+        <v>38744</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>146122</v>
+        <v>143760</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>32534</v>
+        <v>32666</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>42621</v>
+        <v>42132</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>68173</v>
+        <v>65596</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>172885</v>
+        <v>173008</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>50575</v>
+        <v>51553</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>72869</v>
+        <v>73436</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>114112</v>
+        <v>113555</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>328644</v>
+        <v>326224</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>30633</v>
+        <v>30879</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>50183</v>
+        <v>48416</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>63087</v>
+        <v>63383</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>179614</v>
+        <v>176429</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>54866</v>
+        <v>56089</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>68516</v>
+        <v>69138</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>99969</v>
+        <v>97282</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>204535</v>
+        <v>201230</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>79747</v>
+        <v>80165</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>109318</v>
+        <v>108136</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>154626</v>
+        <v>152694</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>373296</v>
+        <v>371844</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2578</v>
+        <v>2333</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>18498</v>
+        <v>18314</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>20279</v>
+        <v>20535</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>67551</v>
+        <v>67831</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>4652</v>
+        <v>4721</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>24823</v>
+        <v>25811</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>31656</v>
+        <v>32476</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>117430</v>
+        <v>117013</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>9906</v>
+        <v>9269</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>48756</v>
+        <v>48018</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>57903</v>
+        <v>58172</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>191535</v>
+        <v>192066</v>
       </c>
     </row>
     <row r="31">
@@ -3138,37 +3138,37 @@
         <v>12732</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>40179</v>
+        <v>37980</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>37486</v>
+        <v>38385</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>93263</v>
+        <v>92821</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>19682</v>
+        <v>19575</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>48293</v>
+        <v>48532</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>57375</v>
+        <v>57969</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>148319</v>
+        <v>147281</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>26527</v>
+        <v>27002</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>79989</v>
+        <v>77844</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>88552</v>
+        <v>88766</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>231103</v>
+        <v>230534</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>657263</v>
+        <v>653268</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>814709</v>
+        <v>810508</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>879663</v>
+        <v>883588</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1532421</v>
+        <v>1536278</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>751906</v>
+        <v>750213</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>929732</v>
+        <v>929947</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1015213</v>
+        <v>1012901</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1711344</v>
+        <v>1705492</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1428846</v>
+        <v>1435999</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1777719</v>
+        <v>1772144</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1926924</v>
+        <v>1918936</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>3286868</v>
+        <v>3280309</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>748181</v>
+        <v>747524</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>912650</v>
+        <v>912228</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>982319</v>
+        <v>981301</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>1662699</v>
+        <v>1669147</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>842620</v>
+        <v>842921</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1034933</v>
+        <v>1032387</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1120433</v>
+        <v>1116537</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>1815875</v>
+        <v>1814464</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1563640</v>
+        <v>1565475</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1922087</v>
+        <v>1916889</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>2071473</v>
+        <v>2065306</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>3455665</v>
+        <v>3448101</v>
       </c>
     </row>
     <row r="36">
